--- a/bizlenz_api_documentation.xlsx
+++ b/bizlenz_api_documentation.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PDF 파일 presigned URL 발급 엔드포인트</t>
+          <t>PDF 파일 presigned URL 발급 엔드포인트 (API 명세서 기준)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>클라이언트가 S3 업로드 후 호출하는 메타데이터 저장 API</t>
+          <t>클라이언트가 S3 업로드 후 호출하는 메타데이터 저장 API (ERD 기준)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/files</t>
+          <t>/files/search</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Get My Files</t>
+          <t>Search My Files</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>내 파일 목록 조회 (RDS 기반)</t>
+          <t>내 파일 검색 (RDS 기반, API 명세서 기준)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>limit (query) - 조회할 파일 수; offset (query) - 시작 위치</t>
+          <t>keywords (query) - 파일명 검색 키워드; status_filter (query) - 상태 필터 (pending, processing, completed, failed); limit (query) - 조회할 파일 수</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -609,22 +609,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/files/search</t>
+          <t>/files/{file_id}</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Search My Files</t>
+          <t>Delete File</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>내 파일 검색 (RDS 기반)</t>
+          <t>파일 삭제 (DB ID 기반, S3 + DB 동시 삭제)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>keywords (query) - 파일명 검색 키워드; status_filter (query) - 상태 필터 (pending, processing, completed, failed); limit (query) - 조회할 파일 수</t>
+          <t xml:space="preserve">file_id (path) - </t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -650,7 +650,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/files/{file_id}</t>
+          <t>/files/{file_id}/download</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Get File Detail</t>
+          <t>Download File</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>특정 파일 상세 정보 조회</t>
+          <t>사업계획서 다운로드 (API 명세서 기준)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -691,22 +691,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/files/{file_id}</t>
+          <t>/files/admin/all</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Delete File</t>
+          <t>Get All Files Admin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>파일 삭제 (본인 파일 또는 관리자만 가능, S3 + DB 동시 삭제)</t>
+          <t>전체 파일 조회 (관리자만) - MVP 이후 구현 예정</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">file_id (path) - </t>
+          <t>limit (query) - 조회할 파일 수; offset (query) - 시작 위치</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -732,7 +732,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/files/admin/all</t>
+          <t>/files/admin/search</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Get All Files Admin</t>
+          <t>Search All Files Admin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전체 파일 조회 (관리자만)</t>
+          <t>전체 파일 검색 (관리자만) - MVP 이후 구현 예정</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>limit (query) - 조회할 파일 수; offset (query) - 시작 위치</t>
+          <t>keywords (query) - 파일명 검색 키워드; user_id (query) - 특정 사용자 ID로 필터; status_filter (query) - 상태 필터; limit (query) - 조회할 파일 수</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -773,7 +773,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/files/admin/search</t>
+          <t>/users/users/me</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -783,105 +783,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Search All Files Admin</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>전체 파일 검색 (관리자만)</t>
-        </is>
-      </c>
+          <t>Get Me</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>keywords (query) - 파일명 검색 키워드; user_id (query) - 특정 사용자 ID로 필터; status_filter (query) - 상태 필터; limit (query) - 조회할 파일 수</t>
-        </is>
-      </c>
+          <t>users, users</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>200: Successful Response; 422: Validation Error</t>
+          <t>200: Successful Response</t>
         </is>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>/files/legacy/s3-search</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Legacy Search S3 Files</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>레거시: S3 직접 검색 (사용 비권장, 하위 호환성 목적)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>keywords (query) - 파일 이름 검색 키워드; extension (query) - 파일 확장자 (예: pdf)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>200: Successful Response; 422: Validation Error</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>/users/users/me</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Get Me</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>users, users</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>200: Successful Response</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -896,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,7 +887,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PDF 파일 presigned URL 발급 엔드포인트</t>
+          <t>PDF 파일 presigned URL 발급 엔드포인트 (API 명세서 기준)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1010,7 +928,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>클라이언트가 S3 업로드 후 호출하는 메타데이터 저장 API</t>
+          <t>클라이언트가 S3 업로드 후 호출하는 메타데이터 저장 API (ERD 기준)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1036,7 +954,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/files</t>
+          <t>/files/search</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1046,12 +964,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Get My Files</t>
+          <t>Search My Files</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>내 파일 목록 조회 (RDS 기반)</t>
+          <t>내 파일 검색 (RDS 기반, API 명세서 기준)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1061,7 +979,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>limit (query) - 조회할 파일 수; offset (query) - 시작 위치</t>
+          <t>keywords (query) - 파일명 검색 키워드; status_filter (query) - 상태 필터 (pending, processing, completed, failed); limit (query) - 조회할 파일 수</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -1077,22 +995,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/files/search</t>
+          <t>/files/{file_id}</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Search My Files</t>
+          <t>Delete File</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>내 파일 검색 (RDS 기반)</t>
+          <t>파일 삭제 (DB ID 기반, S3 + DB 동시 삭제)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1102,7 +1020,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>keywords (query) - 파일명 검색 키워드; status_filter (query) - 상태 필터 (pending, processing, completed, failed); limit (query) - 조회할 파일 수</t>
+          <t xml:space="preserve">file_id (path) - </t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -1118,7 +1036,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/files/{file_id}</t>
+          <t>/files/{file_id}/download</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1128,12 +1046,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Get File Detail</t>
+          <t>Download File</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>특정 파일 상세 정보 조회</t>
+          <t>사업계획서 다운로드 (API 명세서 기준)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1159,22 +1077,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/files/{file_id}</t>
+          <t>/files/admin/all</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Delete File</t>
+          <t>Get All Files Admin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>파일 삭제 (본인 파일 또는 관리자만 가능, S3 + DB 동시 삭제)</t>
+          <t>전체 파일 조회 (관리자만) - MVP 이후 구현 예정</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1184,7 +1102,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">file_id (path) - </t>
+          <t>limit (query) - 조회할 파일 수; offset (query) - 시작 위치</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -1200,7 +1118,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/files/admin/all</t>
+          <t>/files/admin/search</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1210,12 +1128,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Get All Files Admin</t>
+          <t>Search All Files Admin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전체 파일 조회 (관리자만)</t>
+          <t>전체 파일 검색 (관리자만) - MVP 이후 구현 예정</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1225,7 +1143,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>limit (query) - 조회할 파일 수; offset (query) - 시작 위치</t>
+          <t>keywords (query) - 파일명 검색 키워드; user_id (query) - 특정 사용자 ID로 필터; status_filter (query) - 상태 필터; limit (query) - 조회할 파일 수</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1235,88 +1153,6 @@
         </is>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>/files/admin/search</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Search All Files Admin</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>전체 파일 검색 (관리자만)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>keywords (query) - 파일명 검색 키워드; user_id (query) - 특정 사용자 ID로 필터; status_filter (query) - 상태 필터; limit (query) - 조회할 파일 수</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>200: Successful Response; 422: Validation Error</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>/files/legacy/s3-search</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Legacy Search S3 Files</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>레거시: S3 직접 검색 (사용 비권장, 하위 호환성 목적)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>keywords (query) - 파일 이름 검색 키워드; extension (query) - 파일 확장자 (예: pdf)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>200: Successful Response; 422: Validation Error</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1494,7 +1330,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-12 23:35:20</t>
+          <t>2025-09-14 21:00:32</t>
         </is>
       </c>
     </row>
